--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,12 +130,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JIRA与Confluence系统交接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>了解现有系统使用情况
 完成交接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各开发线开发模式和工具了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRA与Confluence系统交接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRA与Confluence部署文档及培训资料学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,17 +213,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,35 +717,39 @@
     <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -745,9 +769,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -755,21 +777,30 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,14 @@
   </si>
   <si>
     <t>JIRA与Confluence部署文档及培训资料学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRA问题统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置管理基础PPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +548,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -747,8 +755,8 @@
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>29</v>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -756,14 +764,18 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -779,7 +791,9 @@
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="四月第二周" sheetId="1" r:id="rId1"/>
+    <sheet name="四月" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,15 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各产品线代码管理了解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发布流程优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与各产品线负责任人了解代码管理模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,23 +128,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>JIRA与Confluence系统交接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRA与Confluence部署文档及培训资料学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIRA问题统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置管理基础PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四月第四周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>各开发线开发模式和工具了解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JIRA与Confluence系统交接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIRA与Confluence部署文档及培训资料学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIRA问题统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置管理基础PPT</t>
+    <t>四月配置管理计划制定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Svn目录梳理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn账号与权限管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,143 +558,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A3:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="41.875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -693,79 +686,77 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -774,7 +765,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -782,7 +773,9 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -792,33 +785,181 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,26 @@
   </si>
   <si>
     <t>svn账号与权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合产品组目录结构与人员角色确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合产品组目录建立与权限分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助黄鹏将移动机务资料入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人带教培训资料准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -257,6 +277,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -558,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E41"/>
+  <dimension ref="A3:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -801,7 +822,9 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
@@ -810,10 +833,9 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -822,78 +844,84 @@
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -907,42 +935,56 @@
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,18 +148,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各开发线开发模式和工具了解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>四月配置管理计划制定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Svn目录梳理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,14 +176,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新人带教培训资料准备</t>
+    <t>技术创新目录结构确认与建立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机务产品组权限修改按组分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn版本库增加提交注释限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人带教培训资料准备-常用应用平台使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台式机更换笔记本资料迁移与环境配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合产品组配置库使用培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训-职场活水系列课程第一期——《结构化思维》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人带教培训资料准备-版本构建与发布过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机务产品组非标准库文档目录权限改为只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合产品组配置库使用指导与答疑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人带教培训资料准备-配置管理规范解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人带教培训资料完善定稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVN相关资料交接-刘晴想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人带教培训资料准备-常用应用平台使用PPT大纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统上下线及基础架构变更记录表设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Svn交接资料内容确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,6 +344,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -335,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,7 +429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,16 +638,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E43"/>
+  <dimension ref="A3:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="41.875" customWidth="1"/>
+    <col min="2" max="2" width="46.125" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -806,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -815,7 +874,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -826,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -834,7 +893,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -876,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -885,7 +944,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
@@ -894,7 +953,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
@@ -903,7 +962,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
@@ -913,78 +972,148 @@
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="1"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="1"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="四月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机务产品组非标准库文档目录权限改为只读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>综合产品组配置库使用指导与答疑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +237,21 @@
   </si>
   <si>
     <t>Svn交接资料内容确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机务产品组非标准库文档目录迁移方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://greasyfork.org/zh-CN/scripts</t>
+  </si>
+  <si>
+    <t>用户脚本网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合chrome脚本猴子扩展使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -865,7 +876,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -885,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -962,7 +973,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
@@ -1000,7 +1011,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1060,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
@@ -1069,7 +1080,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
@@ -1078,7 +1089,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
@@ -1089,7 +1100,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
@@ -1124,12 +1135,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
